--- a/database/industries/folad/hormoz/cost/yearly.xlsx
+++ b/database/industries/folad/hormoz/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\hormoz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\hormoz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448B309-731A-4226-934C-8E856F58AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +372,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -383,7 +384,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -430,6 +431,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -465,6 +483,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,17 +651,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -636,7 +671,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +683,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,7 +695,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -670,7 +705,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -682,7 +717,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -694,7 +729,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -704,7 +739,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -726,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -736,7 +771,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -758,7 +793,7 @@
         <v>98817501</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -780,7 +815,7 @@
         <v>1092676</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -802,7 +837,7 @@
         <v>42773817</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -824,7 +859,7 @@
         <v>142683994</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -846,7 +881,7 @@
         <v>-2430349</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -868,7 +903,7 @@
         <v>140253645</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -890,7 +925,7 @@
         <v>502965</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -912,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -934,7 +969,7 @@
         <v>140756610</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -956,7 +991,7 @@
         <v>11178551</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -978,7 +1013,7 @@
         <v>-24669887</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1035,7 @@
         <v>127265274</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1079,7 @@
         <v>127265274</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1054,7 +1089,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1064,7 +1099,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1074,7 +1109,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1106,7 +1141,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>910355</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1154,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1202,7 +1237,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1261,7 @@
         <v>24963</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1285,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1333,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>940697</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1354,7 +1389,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1364,7 +1399,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1374,7 +1409,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1406,7 +1441,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>24</v>
       </c>
@@ -1430,7 +1465,7 @@
         <v>2746665</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>27</v>
       </c>
@@ -1454,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
@@ -1478,7 +1513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1537,7 @@
         <v>23016</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1561,7 @@
         <v>201991</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
@@ -1550,7 +1585,7 @@
         <v>23624</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1633,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1679,7 @@
         <v>2998548</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1654,7 +1689,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1664,7 +1699,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1674,7 +1709,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1706,7 +1741,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>2689121</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>28</v>
       </c>
@@ -1778,7 +1813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>23170</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>207209</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1885,7 @@
         <v>23825</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>32</v>
       </c>
@@ -1874,7 +1909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1933,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>34</v>
       </c>
@@ -1922,7 +1957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +1979,7 @@
         <v>2946506</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1954,7 +1989,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1964,7 +1999,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1974,7 +2009,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>37</v>
       </c>
@@ -1996,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2006,7 +2041,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>967899</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -2054,7 +2089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>29</v>
       </c>
@@ -2102,7 +2137,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>30</v>
       </c>
@@ -2126,7 +2161,7 @@
         <v>19745</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>31</v>
       </c>
@@ -2150,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>32</v>
       </c>
@@ -2174,7 +2209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2233,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>34</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2279,7 @@
         <v>992739</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2254,7 +2289,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2264,7 +2299,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2274,7 +2309,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>38</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2306,7 +2341,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2330,7 +2365,7 @@
         <v>23976164</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>28</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>29</v>
       </c>
@@ -2402,7 +2437,7 @@
         <v>200063</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>30</v>
       </c>
@@ -2426,7 +2461,7 @@
         <v>24546</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2485,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>32</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>33</v>
       </c>
@@ -2498,7 +2533,7 @@
         <v>31131</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -2522,7 +2557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>12</v>
       </c>
@@ -2544,7 +2579,7 @@
         <v>24233248</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2554,7 +2589,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2564,7 +2599,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2574,7 +2609,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>40</v>
       </c>
@@ -2596,7 +2631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2606,7 +2641,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2665,7 @@
         <v>110149593</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>27</v>
       </c>
@@ -2654,7 +2689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>28</v>
       </c>
@@ -2678,7 +2713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>29</v>
       </c>
@@ -2702,7 +2737,7 @@
         <v>1678582</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>30</v>
       </c>
@@ -2726,7 +2761,7 @@
         <v>306466</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>31</v>
       </c>
@@ -2750,7 +2785,7 @@
         <v>192006</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>32</v>
       </c>
@@ -2774,7 +2809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>33</v>
       </c>
@@ -2798,7 +2833,7 @@
         <v>65395</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>34</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>12</v>
       </c>
@@ -2844,7 +2879,7 @@
         <v>112392042</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2854,7 +2889,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2864,7 +2899,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2874,7 +2909,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>41</v>
       </c>
@@ -2896,7 +2931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2906,7 +2941,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>24</v>
       </c>
@@ -2930,7 +2965,7 @@
         <v>96664296</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>27</v>
       </c>
@@ -2954,7 +2989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>28</v>
       </c>
@@ -2978,7 +3013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>29</v>
       </c>
@@ -3002,7 +3037,7 @@
         <v>1603918</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3061,7 @@
         <v>297166</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>31</v>
       </c>
@@ -3050,7 +3085,7 @@
         <v>193350</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>32</v>
       </c>
@@ -3074,7 +3109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>58771</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
@@ -3122,7 +3157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>12</v>
       </c>
@@ -3144,7 +3179,7 @@
         <v>98817501</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3154,7 +3189,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3164,7 +3199,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3174,7 +3209,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>42</v>
       </c>
@@ -3196,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3206,7 +3241,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>24</v>
       </c>
@@ -3230,7 +3265,7 @@
         <v>37461461</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>27</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>28</v>
       </c>
@@ -3278,7 +3313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>29</v>
       </c>
@@ -3302,7 +3337,7 @@
         <v>274727</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>30</v>
       </c>
@@ -3326,7 +3361,7 @@
         <v>33846</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>31</v>
       </c>
@@ -3350,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>32</v>
       </c>
@@ -3374,7 +3409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>33</v>
       </c>
@@ -3398,7 +3433,7 @@
         <v>37755</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>34</v>
       </c>
@@ -3422,7 +3457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3479,7 @@
         <v>37807789</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3454,7 +3489,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3464,7 +3499,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3474,7 +3509,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>43</v>
       </c>
@@ -3496,7 +3531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3506,7 +3541,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>24</v>
       </c>
@@ -3530,7 +3565,7 @@
         <v>26337159</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>28</v>
       </c>
@@ -3554,7 +3589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>29</v>
       </c>
@@ -3578,7 +3613,7 @@
         <v>60097026</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>30</v>
       </c>
@@ -3602,7 +3637,7 @@
         <v>983295</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>31</v>
       </c>
@@ -3626,7 +3661,7 @@
         <v>6686567</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>33</v>
       </c>
@@ -3650,7 +3685,7 @@
         <v>16836668</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>34</v>
       </c>
@@ -3674,7 +3709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3684,7 +3719,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3694,7 +3729,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3704,7 +3739,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>45</v>
       </c>
@@ -3726,7 +3761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3736,7 +3771,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>40103031</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>28</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>29</v>
       </c>
@@ -3808,7 +3843,7 @@
         <v>72931091</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>30</v>
       </c>
@@ -3832,7 +3867,7 @@
         <v>1517226</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>31</v>
       </c>
@@ -3856,7 +3891,7 @@
         <v>8127582</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>32</v>
       </c>
@@ -3880,7 +3915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>33</v>
       </c>
@@ -3904,7 +3939,7 @@
         <v>20109164</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>34</v>
       </c>
@@ -3928,7 +3963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3938,7 +3973,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3948,7 +3983,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3958,7 +3993,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
         <v>46</v>
       </c>
@@ -3980,7 +4015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3990,7 +4025,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4049,7 @@
         <v>35946429</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>28</v>
       </c>
@@ -4038,7 +4073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>29</v>
       </c>
@@ -4062,7 +4097,7 @@
         <v>69223910</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>30</v>
       </c>
@@ -4086,7 +4121,7 @@
         <v>1434137</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>31</v>
       </c>
@@ -4110,7 +4145,7 @@
         <v>8115425</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>32</v>
       </c>
@@ -4134,7 +4169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>33</v>
       </c>
@@ -4158,7 +4193,7 @@
         <v>18475637</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>34</v>
       </c>
@@ -4182,7 +4217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4192,7 +4227,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4202,7 +4237,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4212,7 +4247,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
         <v>47</v>
       </c>
@@ -4234,7 +4269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4244,7 +4279,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>24</v>
       </c>
@@ -4268,7 +4303,7 @@
         <v>38703895</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>28</v>
       </c>
@@ -4292,7 +4327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>29</v>
       </c>
@@ -4316,7 +4351,7 @@
         <v>86528189</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>30</v>
       </c>
@@ -4340,7 +4375,7 @@
         <v>1714155</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>31</v>
       </c>
@@ -4364,7 +4399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>33</v>
       </c>
@@ -4388,7 +4423,7 @@
         <v>19664063</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>34</v>
       </c>
@@ -4412,7 +4447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4422,7 +4457,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -4432,7 +4467,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4442,7 +4477,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B197" s="7" t="s">
         <v>48</v>
       </c>
@@ -4464,7 +4499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4474,7 +4509,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>49</v>
       </c>
@@ -4496,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>50</v>
       </c>
@@ -4518,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>51</v>
       </c>
@@ -4540,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>52</v>
       </c>
@@ -4562,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>53</v>
       </c>
@@ -4584,7 +4619,7 @@
         <v>14146704</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>54</v>
       </c>
@@ -4606,7 +4641,7 @@
         <v>12501224</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>55</v>
       </c>
@@ -4628,7 +4663,7 @@
         <v>674595</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>56</v>
       </c>
@@ -4650,7 +4685,7 @@
         <v>3790001</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>57</v>
       </c>
@@ -4672,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>58</v>
       </c>
@@ -4694,7 +4729,7 @@
         <v>11661293</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="14" t="s">
         <v>12</v>
       </c>
